--- a/proofreading_divisions.xlsx
+++ b/proofreading_divisions.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="133">
   <si>
     <t>Genesis</t>
   </si>
@@ -396,13 +396,40 @@
   </si>
   <si>
     <t>E. Francis</t>
+  </si>
+  <si>
+    <t>Proofreading done</t>
+  </si>
+  <si>
+    <t>Revisions incorporated</t>
+  </si>
+  <si>
+    <t>Book (English)</t>
+  </si>
+  <si>
+    <t>Book (Pinyin)</t>
+  </si>
+  <si>
+    <t>Book (Chinese)</t>
+  </si>
+  <si>
+    <t>Starting page</t>
+  </si>
+  <si>
+    <t>Proofreader</t>
+  </si>
+  <si>
+    <t>S. Bao</t>
+  </si>
+  <si>
+    <t>E. Tall Robinson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,24 +441,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +502,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -493,27 +527,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,683 +828,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="11">
         <v>119</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="11">
         <v>218</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="11">
         <v>290</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="11">
         <v>394</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.5">
-      <c r="A6" s="1" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="11">
         <v>479</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="1" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="11">
         <v>538</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="1" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="11">
         <v>595</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5">
-      <c r="A9" s="1" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="11">
         <v>603</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.5">
-      <c r="A10" s="1" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="11">
         <v>678</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11">
+        <v>740</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11">
+        <v>813</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11">
+        <v>881</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="11">
+        <v>950</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1029</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1053</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1087</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1105</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1167</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1318</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4">
-        <v>740</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1370</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.5">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4">
-        <v>813</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1388</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4">
-        <v>881</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4">
-        <v>950</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1029</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.5">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1053</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1087</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1105</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1167</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1318</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1397</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1370</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1388</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1397</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="31.5">
-      <c r="A24" s="1" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="11">
         <v>1511</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.5">
-      <c r="A25" s="1" t="s">
+      <c r="E25" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="11">
         <v>1640</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.5">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="11">
         <v>1652</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="31.5">
-      <c r="A27" s="1" t="s">
+      <c r="E27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="11">
         <v>1769</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="31.5">
-      <c r="A28" s="1" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="11">
         <v>1804</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="1" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="11">
         <v>1821</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.5">
-      <c r="A30" s="1" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="11">
         <v>1828</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="31.5">
-      <c r="A31" s="1" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D32" s="11">
         <v>1841</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="1" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="11">
         <v>1844</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75">
-      <c r="A33" s="1" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D34" s="11">
         <v>1849</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30">
-      <c r="A34" s="1" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="11">
         <v>1859</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="31.5">
-      <c r="A35" s="1" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D36" s="11">
         <v>1864</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.5">
-      <c r="A36" s="1" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D37" s="11">
         <v>1869</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="1" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D38" s="11">
         <v>1875</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="31.5">
-      <c r="A38" s="1" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="11">
         <v>1879</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="31.5">
-      <c r="A39" s="1" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="11">
         <v>1899</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>120</v>
       </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proofreading_divisions.xlsx
+++ b/proofreading_divisions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Language Program\old_testament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\language_program\old_testament\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -831,7 +831,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,8 +922,12 @@
       <c r="E4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
@@ -1112,8 +1116,12 @@
       <c r="E14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
@@ -1188,7 +1196,9 @@
       <c r="E18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
@@ -1321,7 +1331,9 @@
       <c r="E25" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
@@ -1378,8 +1390,12 @@
       <c r="E28" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="10" t="s">
